--- a/att.xlsx
+++ b/att.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A3:C299"/>
+  <dimension ref="A3:C336"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
@@ -3868,74 +3868,517 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
+      <c r="A295" s="1" t="inlineStr">
         <is>
           <t>10/05/2019</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C295" s="1" t="inlineStr">
         <is>
           <t>12:22:31</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Sno</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B296" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C296" s="1" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
-        <v>1</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>abhi</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
+      <c r="A297" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B297" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C297" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
-        <v>2</v>
-      </c>
-      <c r="B298" t="inlineStr">
+      <c r="A298" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B298" s="1" t="inlineStr">
         <is>
           <t>vichu</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="C298" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
+      <c r="A299" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>shamil</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
+      <c r="B299" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C299" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2019</t>
+        </is>
+      </c>
+      <c r="C301" s="1" t="inlineStr">
+        <is>
+          <t>22:50:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B302" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C302" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2019</t>
+        </is>
+      </c>
+      <c r="C304" s="1" t="inlineStr">
+        <is>
+          <t>22:56:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B305" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C305" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B306" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C306" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B307" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C307" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2019</t>
+        </is>
+      </c>
+      <c r="C309" s="1" t="inlineStr">
+        <is>
+          <t>22:58:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B310" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C310" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B311" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C311" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B312" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C312" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2019</t>
+        </is>
+      </c>
+      <c r="C314" s="1" t="inlineStr">
+        <is>
+          <t>23:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B315" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C315" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2019</t>
+        </is>
+      </c>
+      <c r="C317" s="1" t="inlineStr">
+        <is>
+          <t>23:02:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B318" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C318" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B319" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C319" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B320" s="1" t="inlineStr">
+        <is>
+          <t>moosi</t>
+        </is>
+      </c>
+      <c r="C320" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B321" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C321" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B322" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C322" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2019</t>
+        </is>
+      </c>
+      <c r="C324" s="1" t="inlineStr">
+        <is>
+          <t>23:03:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B325" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C325" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B326" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C326" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B327" s="1" t="inlineStr">
+        <is>
+          <t>moosi</t>
+        </is>
+      </c>
+      <c r="C327" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B328" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C328" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B329" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C329" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>11/05/2019</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>23:03:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>moosi</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>4</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
         <is>
           <t>no</t>
         </is>
